--- a/TP-2.1-generadores/tablas_informe.xlsx
+++ b/TP-2.1-generadores/tablas_informe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauta\Documents\UNIVERSIDAD\MATERIAS 2024\Simulación\Trabajos Practicos\Repositorio\TPs-Simulacion\TP-2.1-generadores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9197F429-9006-450E-B488-D1D4E9BAA38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005A48E1-2B3B-4E91-892C-DCB405C45501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CUADRADOS MEDIOS" sheetId="5" r:id="rId1"/>
@@ -407,6 +407,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -414,9 +417,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -701,193 +701,195 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D4258F-BADD-4D2A-AE67-42DD7A562FB4}">
   <dimension ref="A2:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="10" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="10" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3700</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>2500</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="5" t="s">
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>6876</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="H6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>7826</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="5" t="s">
+      <c r="H7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -910,7 +912,7 @@
   <dimension ref="A2:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -920,182 +922,182 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="4" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="5" t="s">
+      <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="5" t="s">
+      <c r="H7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1117,7 +1119,7 @@
   <dimension ref="A2:N7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1131,259 +1133,259 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3" t="s">
+      <c r="L2" s="5"/>
+      <c r="M2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="4"/>
+      <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>37</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>134775813</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="5" t="s">
+      <c r="J4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="5" t="s">
+      <c r="L4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>2500</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>134775813</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="5" t="s">
+      <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="5" t="s">
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="5" t="s">
+      <c r="L5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>6876</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>134775813</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="5" t="s">
+      <c r="J6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="5" t="s">
+      <c r="L6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>7826</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>134775813</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="5" t="s">
+      <c r="H7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="5" t="s">
+      <c r="J7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="5" t="s">
+      <c r="L7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1395,7 +1397,7 @@
   <dimension ref="A2:N7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1409,259 +1411,259 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3" t="s">
+      <c r="L2" s="5"/>
+      <c r="M2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="4"/>
+      <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>37</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>134775813</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="5" t="s">
+      <c r="J4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="5" t="s">
+      <c r="L4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>2500</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>134775813</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="5" t="s">
+      <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="5" t="s">
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="5" t="s">
+      <c r="L5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>6876</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>134775813</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="5" t="s">
+      <c r="J6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="5" t="s">
+      <c r="L6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>7826</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>134775813</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="5" t="s">
+      <c r="H7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="5" t="s">
+      <c r="J7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="5" t="s">
+      <c r="L7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1672,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K7" sqref="K6:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1687,248 +1689,248 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3" t="s">
+      <c r="L2" s="5"/>
+      <c r="M2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="4"/>
+      <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>37</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>22695477</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="5" t="s">
+      <c r="J4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="5" t="s">
+      <c r="L4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>2500</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>22695477</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="5" t="s">
+      <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="5" t="s">
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="5" t="s">
+      <c r="L5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>6876</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>22695477</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="5" t="s">
+      <c r="J6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="5" t="s">
+      <c r="L6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>7826</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>22695477</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="5" t="s">
+      <c r="H7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="5" t="s">
+      <c r="J7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="5" t="s">
+      <c r="L7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
